--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
@@ -759,10 +759,10 @@
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>34</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -894,7 +894,7 @@
         <v>501</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -929,58 +929,58 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -989,34 +989,34 @@
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -1034,7 +1034,7 @@
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1058,7 +1058,7 @@
         <v>4.33</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
@@ -1129,22 +1129,22 @@
         <v>2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
         <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1341,7 +1341,7 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1353,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1362,7 +1362,7 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1386,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
@@ -1401,7 +1401,7 @@
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
@@ -2233,10 +2233,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2567,58 +2567,58 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L12" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2633,10 +2633,10 @@
         <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2645,10 +2645,10 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
         <v>9.75</v>
@@ -2657,25 +2657,25 @@
         <v>8.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
         <v>5.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR12" t="n">
         <v>110</v>
@@ -2684,31 +2684,31 @@
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AU12" t="n">
         <v>6.7</v>
       </c>
       <c r="AV12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB12" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2749,58 +2749,58 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L13" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="Q13" t="n">
         <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="S13" t="n">
         <v>1.26</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="U13" t="n">
         <v>1.45</v>
       </c>
       <c r="V13" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W13" t="n">
         <v>16</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
@@ -2809,19 +2809,19 @@
         <v>45</v>
       </c>
       <c r="AA13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB13" t="n">
         <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF13" t="n">
         <v>35</v>
@@ -2839,7 +2839,7 @@
         <v>8.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
@@ -2848,10 +2848,10 @@
         <v>17.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
@@ -2866,28 +2866,28 @@
         <v>175</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV13" t="n">
         <v>40</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AZ13" t="n">
         <v>28</v>
       </c>
       <c r="BA13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB13" t="n">
         <v>120</v>
@@ -2931,52 +2931,52 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K14" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L14" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
         <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W14" t="n">
         <v>8.75</v>
@@ -2985,10 +2985,10 @@
         <v>8</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA14" t="n">
         <v>10.75</v>
@@ -2997,22 +2997,22 @@
         <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE14" t="n">
         <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG14" t="n">
         <v>350</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>45</v>
@@ -3024,10 +3024,10 @@
         <v>120</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
         <v>3.5</v>
@@ -3042,13 +3042,13 @@
         <v>18</v>
       </c>
       <c r="AR14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS14" t="n">
         <v>150</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>7.4</v>
@@ -3057,10 +3057,10 @@
         <v>55</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AX14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AY14" t="n">
         <v>32</v>
@@ -3069,7 +3069,7 @@
         <v>200</v>
       </c>
       <c r="BA14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB14" t="n">
         <v>350</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
         <v>4.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="J15" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L15" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -3140,31 +3140,31 @@
         <v>1.1</v>
       </c>
       <c r="P15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="U15" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V15" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="W15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>8.75</v>
@@ -3173,16 +3173,16 @@
         <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE15" t="n">
         <v>11.75</v>
@@ -3206,31 +3206,31 @@
         <v>80</v>
       </c>
       <c r="AL15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AP15" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AS15" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AU15" t="n">
         <v>6.3</v>
@@ -3239,7 +3239,7 @@
         <v>32</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
@@ -3298,52 +3298,52 @@
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V16" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
@@ -3355,28 +3355,28 @@
         <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
@@ -3391,7 +3391,7 @@
         <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>5</v>
@@ -3412,7 +3412,7 @@
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
         <v>7.5</v>
@@ -3427,16 +3427,16 @@
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>501</v>
@@ -3519,10 +3519,10 @@
         <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -3534,7 +3534,7 @@
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
@@ -3546,7 +3546,7 @@
         <v>21</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
         <v>10</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3812,364 +3812,182 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hSSQrGlI</t>
+          <t>dfzaeA4K</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25/09/2024</t>
+          <t>26/09/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>Universidad Central</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>1.65</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
-        <v>1.93</v>
+        <v>5.3</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>2.22</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.57</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.62</v>
       </c>
-      <c r="S19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W19" t="n">
-        <v>9.25</v>
+        <v>5.4</v>
       </c>
       <c r="X19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE19" t="n">
         <v>19</v>
       </c>
-      <c r="Y19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
       <c r="AF19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG19" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.25</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
       <c r="AL19" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="AR19" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AS19" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU19" t="n">
         <v>7.9</v>
       </c>
       <c r="AV19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="AZ19" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="BA19" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="BB19" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>dfzaeA4K</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>26/09/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Universidad Central</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Rayo Zuliano</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -765,10 +765,10 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -953,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>2.5</v>
@@ -1135,31 +1135,31 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.8</v>
       </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1171,52 +1171,52 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>10</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
         <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>67</v>
@@ -1225,16 +1225,16 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>4</v>
@@ -1252,10 +1252,10 @@
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1323,16 +1323,16 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1341,7 +1341,7 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1359,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1386,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
@@ -1410,7 +1410,7 @@
         <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1422,16 +1422,16 @@
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1475,52 +1475,52 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>19</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.63</v>
       </c>
       <c r="W6" t="n">
         <v>15</v>
@@ -1529,19 +1529,19 @@
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
         <v>7.5</v>
@@ -1550,49 +1550,49 @@
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
         <v>13</v>
       </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="n">
         <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1601,10 +1601,10 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
         <v>17</v>
@@ -1616,10 +1616,10 @@
         <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>176</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
         <v>5.5</v>
@@ -1675,10 +1675,10 @@
         <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1699,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1711,7 +1711,7 @@
         <v>5.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>7.5</v>
@@ -1738,16 +1738,16 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="n">
         <v>67</v>
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="AX7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY7" t="n">
         <v>51</v>
@@ -1795,7 +1795,7 @@
         <v>251</v>
       </c>
       <c r="BA7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>
@@ -1839,148 +1839,148 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.73</v>
       </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
       </c>
       <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>17</v>
       </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -2036,25 +2036,25 @@
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2063,10 +2063,10 @@
         <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2087,7 +2087,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2096,7 +2096,7 @@
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
@@ -2105,10 +2105,10 @@
         <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
@@ -2117,7 +2117,7 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
@@ -2135,16 +2135,16 @@
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
         <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
         <v>5</v>
@@ -2156,10 +2156,10 @@
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>351</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
         <v>2.4</v>
@@ -2400,13 +2400,13 @@
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2427,10 +2427,10 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
@@ -2466,10 +2466,10 @@
         <v>900</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
@@ -2514,19 +2514,19 @@
         <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
         <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2573,16 +2573,16 @@
         <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K12" t="n">
         <v>2.15</v>
       </c>
       <c r="L12" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2615,22 +2615,22 @@
         <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC12" t="n">
         <v>11.5</v>
@@ -2648,7 +2648,7 @@
         <v>350</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI12" t="n">
         <v>9.75</v>
@@ -2660,31 +2660,31 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN12" t="n">
         <v>5.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
         <v>100</v>
       </c>
       <c r="AR12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU12" t="n">
         <v>6.7</v>
@@ -2699,10 +2699,10 @@
         <v>9.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA12" t="n">
         <v>60</v>
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="L13" t="n">
         <v>2.35</v>
@@ -2770,34 +2770,34 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O13" t="n">
         <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="S13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="U13" t="n">
         <v>1.45</v>
       </c>
       <c r="V13" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="W13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
@@ -2809,19 +2809,19 @@
         <v>45</v>
       </c>
       <c r="AA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB13" t="n">
         <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>35</v>
@@ -2833,13 +2833,13 @@
         <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
@@ -2851,43 +2851,43 @@
         <v>5.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>70</v>
       </c>
       <c r="AR13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS13" t="n">
         <v>175</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV13" t="n">
         <v>40</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
         <v>28</v>
       </c>
       <c r="BA13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BB13" t="n">
         <v>120</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H14" t="n">
         <v>4.35</v>
       </c>
       <c r="I14" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
         <v>1.9</v>
       </c>
       <c r="K14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2955,22 +2955,22 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U14" t="n">
         <v>1.7</v>
@@ -2979,22 +2979,22 @@
         <v>2.05</v>
       </c>
       <c r="W14" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA14" t="n">
         <v>10.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
@@ -3009,70 +3009,70 @@
         <v>60</v>
       </c>
       <c r="AG14" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>45</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO14" t="n">
         <v>6.6</v>
       </c>
       <c r="AP14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>18</v>
       </c>
       <c r="AR14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS14" t="n">
         <v>150</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU14" t="n">
         <v>7.4</v>
       </c>
       <c r="AV14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
         <v>35</v>
       </c>
       <c r="AY14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA14" t="n">
         <v>200</v>
       </c>
       <c r="BB14" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I15" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="J15" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K15" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L15" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -3140,7 +3140,7 @@
         <v>1.1</v>
       </c>
       <c r="P15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Q15" t="n">
         <v>1.34</v>
@@ -3152,7 +3152,7 @@
         <v>1.21</v>
       </c>
       <c r="T15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="U15" t="n">
         <v>1.39</v>
@@ -3167,13 +3167,13 @@
         <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
         <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -3185,7 +3185,7 @@
         <v>9.75</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
@@ -3197,19 +3197,19 @@
         <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
         <v>15.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN15" t="n">
         <v>4.2</v>
@@ -3218,34 +3218,34 @@
         <v>7.7</v>
       </c>
       <c r="AP15" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AS15" t="n">
         <v>90</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV15" t="n">
         <v>32</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ15" t="n">
         <v>100</v>
@@ -3298,52 +3298,52 @@
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
@@ -3358,10 +3358,10 @@
         <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3370,52 +3370,52 @@
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
         <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3498,13 +3498,13 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
         <v>1.44</v>
@@ -3519,10 +3519,10 @@
         <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -3534,13 +3534,13 @@
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
         <v>21</v>
@@ -3621,10 +3621,10 @@
         <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD17" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3716,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>17</v>
@@ -3740,7 +3740,7 @@
         <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3761,7 +3761,7 @@
         <v>4.33</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
@@ -3785,7 +3785,7 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
         <v>17</v>
@@ -3806,7 +3806,7 @@
         <v>501</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -3853,34 +3853,34 @@
         <v>2.22</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T19" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="U19" t="n">
         <v>2.02</v>
@@ -3889,10 +3889,10 @@
         <v>1.62</v>
       </c>
       <c r="W19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X19" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
@@ -3901,13 +3901,13 @@
         <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>35</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD19" t="n">
         <v>6.7</v>
@@ -3934,7 +3934,7 @@
         <v>110</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
         <v>70</v>
@@ -3946,28 +3946,28 @@
         <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>28</v>
       </c>
       <c r="AR19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS19" t="n">
         <v>300</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV19" t="n">
         <v>80</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AX19" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1141,22 +1141,22 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>12</v>
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1201,7 +1201,7 @@
         <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1228,7 +1228,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
         <v>34</v>
@@ -1252,7 +1252,7 @@
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1323,16 +1323,16 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1341,7 +1341,7 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1359,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1386,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
@@ -1410,7 +1410,7 @@
         <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1422,16 +1422,16 @@
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
       </c>
       <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>67</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1526,13 +1526,13 @@
         <v>15</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
         <v>23</v>
@@ -1547,7 +1547,7 @@
         <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>34</v>
@@ -1559,13 +1559,13 @@
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1601,7 +1601,7 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
         <v>11</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K7" t="n">
         <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1699,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1711,16 +1711,16 @@
         <v>5.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
@@ -1729,34 +1729,34 @@
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1771,7 +1771,7 @@
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
         <v>3</v>
@@ -1783,7 +1783,7 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX7" t="n">
         <v>51</v>
@@ -1792,10 +1792,10 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>
@@ -1860,7 +1860,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2227,10 +2227,10 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
         <v>2.2</v>
@@ -2239,28 +2239,28 @@
         <v>1.65</v>
       </c>
       <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.53</v>
       </c>
       <c r="W10" t="n">
         <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2272,10 +2272,10 @@
         <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
         <v>101</v>
@@ -2284,64 +2284,64 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="n">
         <v>81</v>
       </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>67</v>
-      </c>
       <c r="AN10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV10" t="n">
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
         <v>41</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ10" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BA10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB10" t="n">
         <v>501</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
@@ -2436,13 +2436,13 @@
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2454,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -2472,7 +2472,7 @@
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>51</v>
@@ -2484,16 +2484,16 @@
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2576,10 +2576,10 @@
         <v>1.88</v>
       </c>
       <c r="J12" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L12" t="n">
         <v>2.45</v>
@@ -2591,16 +2591,16 @@
         <v>11.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2609,16 +2609,16 @@
         <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
         <v>12.5</v>
@@ -2627,31 +2627,31 @@
         <v>55</v>
       </c>
       <c r="AA12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="n">
         <v>32</v>
       </c>
-      <c r="AB12" t="n">
-        <v>35</v>
-      </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF12" t="n">
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH12" t="n">
         <v>8.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.25</v>
@@ -2666,34 +2666,34 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>100</v>
       </c>
       <c r="AR12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AX12" t="n">
         <v>9.5</v>
@@ -2708,7 +2708,7 @@
         <v>60</v>
       </c>
       <c r="BB12" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L13" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2776,52 +2776,52 @@
         <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.44</v>
       </c>
-      <c r="R13" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.45</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="X13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
         <v>23</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>24</v>
       </c>
       <c r="AC13" t="n">
         <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF13" t="n">
         <v>35</v>
@@ -2830,61 +2830,61 @@
         <v>175</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR13" t="n">
         <v>70</v>
       </c>
-      <c r="AR13" t="n">
-        <v>75</v>
-      </c>
       <c r="AS13" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV13" t="n">
         <v>40</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BA13" t="n">
         <v>45</v>
@@ -2934,19 +2934,19 @@
         <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2955,16 +2955,16 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S14" t="n">
         <v>1.3</v>
@@ -2982,13 +2982,13 @@
         <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA14" t="n">
         <v>10.75</v>
@@ -3006,25 +3006,25 @@
         <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>45</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK14" t="n">
         <v>150</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>50</v>
@@ -3033,19 +3033,19 @@
         <v>3.45</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AP14" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AR14" t="n">
         <v>40</v>
       </c>
       <c r="AS14" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="n">
         <v>3.2</v>
@@ -3054,25 +3054,25 @@
         <v>7.4</v>
       </c>
       <c r="AV14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AX14" t="n">
         <v>35</v>
       </c>
       <c r="AY14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ14" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA14" t="n">
         <v>200</v>
       </c>
       <c r="BB14" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3116,16 +3116,16 @@
         <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="J15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L15" t="n">
         <v>4.4</v>
@@ -3140,13 +3140,13 @@
         <v>1.1</v>
       </c>
       <c r="P15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="S15" t="n">
         <v>1.21</v>
@@ -3161,13 +3161,13 @@
         <v>2.77</v>
       </c>
       <c r="W15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z15" t="n">
         <v>15.5</v>
@@ -3185,73 +3185,73 @@
         <v>9.75</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ15" t="n">
         <v>15.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="n">
         <v>35</v>
       </c>
       <c r="AM15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN15" t="n">
         <v>4.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AT15" t="n">
         <v>3.95</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV15" t="n">
         <v>32</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AX15" t="n">
         <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
         <v>100</v>
       </c>
       <c r="BA15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB15" t="n">
         <v>150</v>
@@ -3304,13 +3304,13 @@
         <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -3319,16 +3319,16 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3361,13 +3361,13 @@
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
@@ -3391,7 +3391,7 @@
         <v>21</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
         <v>4.75</v>
@@ -3424,19 +3424,19 @@
         <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
         <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
         <v>501</v>
@@ -3477,40 +3477,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>2.63</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
@@ -3519,10 +3519,10 @@
         <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -3534,19 +3534,19 @@
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>10</v>
@@ -3558,7 +3558,7 @@
         <v>67</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -3576,7 +3576,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3591,7 +3591,7 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT17" t="n">
         <v>4</v>
@@ -3621,10 +3621,10 @@
         <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3683,49 +3683,49 @@
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
+        <v>9</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
         <v>8.5</v>
       </c>
-      <c r="X18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
         <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
@@ -3737,37 +3737,37 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3776,7 +3776,7 @@
         <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
         <v>7.5</v>
@@ -3788,7 +3788,7 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>23</v>
@@ -3841,76 +3841,76 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="K19" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X19" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC19" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AD19" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3922,52 +3922,52 @@
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>110</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU19" t="n">
         <v>8</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.8</v>
       </c>
       <c r="AV19" t="n">
         <v>80</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AX19" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -750,7 +750,7 @@
         <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
@@ -759,7 +759,7 @@
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>2.75</v>
@@ -771,31 +771,31 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -813,13 +813,13 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="n">
         <v>12</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,10 +828,10 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
@@ -846,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -861,16 +861,16 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
         <v>4.33</v>
@@ -879,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>41</v>
@@ -891,7 +891,7 @@
         <v>126</v>
       </c>
       <c r="BC2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,13 +1004,13 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
@@ -1022,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>
@@ -1061,13 +1061,13 @@
         <v>12</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1299,13 +1299,13 @@
         <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -1317,10 +1317,10 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.65</v>
@@ -1335,16 +1335,16 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W5" t="n">
         <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1353,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1362,7 +1362,7 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1434,10 +1434,10 @@
         <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,40 +1499,40 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.57</v>
       </c>
-      <c r="R6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>23</v>
@@ -1541,10 +1541,10 @@
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1553,10 +1553,10 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1586,13 +1586,13 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1601,25 +1601,25 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
         <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD6" t="n">
         <v>176</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
         <v>5.75</v>
@@ -1666,7 +1666,7 @@
         <v>9.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
         <v>2.4</v>
@@ -1675,10 +1675,10 @@
         <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1705,7 +1705,7 @@
         <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1738,7 +1738,7 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
@@ -1768,7 +1768,7 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1792,7 +1792,7 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA7" t="n">
         <v>351</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1869,16 +1869,16 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1887,28 +1887,28 @@
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1920,31 +1920,31 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1953,10 +1953,10 @@
         <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1965,19 +1965,19 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
         <v>251</v>
@@ -2033,7 +2033,7 @@
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -2051,10 +2051,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2093,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
@@ -2162,7 +2162,7 @@
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
@@ -2221,10 +2221,10 @@
         <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2257,7 +2257,7 @@
         <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
         <v>9</v>
@@ -2290,7 +2290,7 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
         <v>101</v>
@@ -2299,13 +2299,13 @@
         <v>67</v>
       </c>
       <c r="AM10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
@@ -2329,7 +2329,7 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX10" t="n">
         <v>41</v>
@@ -2338,10 +2338,10 @@
         <v>51</v>
       </c>
       <c r="AZ10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA10" t="n">
         <v>251</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>301</v>
       </c>
       <c r="BB10" t="n">
         <v>501</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
@@ -2427,22 +2427,22 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2454,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -2469,10 +2469,10 @@
         <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>51</v>
@@ -2484,16 +2484,16 @@
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2523,10 +2523,10 @@
         <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H13" t="n">
         <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2773,7 +2773,7 @@
         <v>9.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P13" t="n">
         <v>4.85</v>
@@ -2788,7 +2788,7 @@
         <v>1.26</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="U13" t="n">
         <v>1.44</v>
@@ -2797,31 +2797,31 @@
         <v>2.6</v>
       </c>
       <c r="W13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="n">
         <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC13" t="n">
         <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF13" t="n">
         <v>35</v>
@@ -2833,13 +2833,13 @@
         <v>12.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>14</v>
@@ -2851,10 +2851,10 @@
         <v>5.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>60</v>
@@ -2866,7 +2866,7 @@
         <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AU13" t="n">
         <v>6.4</v>
@@ -2875,10 +2875,10 @@
         <v>40</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
         <v>14.5</v>
@@ -2934,10 +2934,10 @@
         <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
         <v>1.93</v>
@@ -2958,10 +2958,10 @@
         <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
         <v>2.32</v>
@@ -2976,13 +2976,13 @@
         <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -3015,10 +3015,10 @@
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
         <v>150</v>
@@ -3030,7 +3030,7 @@
         <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO14" t="n">
         <v>6.7</v>
@@ -3057,7 +3057,7 @@
         <v>55</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
         <v>35</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L15" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -3164,7 +3164,7 @@
         <v>14</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>8.75</v>
@@ -3185,34 +3185,34 @@
         <v>9.75</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF15" t="n">
         <v>30</v>
       </c>
       <c r="AG15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM15" t="n">
         <v>28</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AO15" t="n">
         <v>7.5</v>
@@ -3221,7 +3221,7 @@
         <v>11.25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>29</v>
@@ -3233,22 +3233,22 @@
         <v>3.95</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV15" t="n">
         <v>32</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA15" t="n">
         <v>100</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -3325,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,10 +3337,10 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
         <v>9</v>
@@ -3349,19 +3349,19 @@
         <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3373,13 +3373,13 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
@@ -3400,7 +3400,7 @@
         <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
@@ -3421,13 +3421,13 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3501,10 +3501,10 @@
         <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
         <v>1.4</v>
@@ -3841,34 +3841,34 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="J19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.15</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.12</v>
-      </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q19" t="n">
         <v>1.98</v>
@@ -3877,31 +3877,31 @@
         <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T19" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
         <v>5.7</v>
       </c>
       <c r="X19" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y19" t="n">
         <v>8.25</v>
       </c>
       <c r="Z19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB19" t="n">
         <v>32</v>
@@ -3910,76 +3910,76 @@
         <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG19" t="n">
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AP19" t="n">
         <v>18</v>
       </c>
-      <c r="AK19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS19" t="n">
         <v>250</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV19" t="n">
         <v>80</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AX19" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AY19" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AZ19" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BA19" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB19" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1129,10 +1129,10 @@
         <v>2.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
         <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1323,10 +1323,10 @@
         <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1341,7 +1341,7 @@
         <v>2.25</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1350,10 +1350,10 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1365,13 +1365,13 @@
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="n">
         <v>13</v>
@@ -1380,7 +1380,7 @@
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>10</v>
@@ -1413,13 +1413,13 @@
         <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
         <v>19</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
@@ -1484,10 +1484,10 @@
         <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
         <v>2.75</v>
@@ -1505,10 +1505,10 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1517,10 +1517,10 @@
         <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
         <v>13</v>
@@ -1556,7 +1556,7 @@
         <v>126</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -1586,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
         <v>34</v>
@@ -1619,7 +1619,7 @@
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>176</v>
@@ -1869,10 +1869,10 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>1.53</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
@@ -2033,16 +2033,16 @@
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2051,10 +2051,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2081,7 +2081,7 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2093,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
@@ -2162,7 +2162,7 @@
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2403,10 +2403,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2463,7 +2463,7 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>12</v>
@@ -2570,7 +2570,7 @@
         <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
         <v>1.88</v>
@@ -2609,13 +2609,13 @@
         <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="W12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -2651,13 +2651,13 @@
         <v>8.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL12" t="n">
         <v>14</v>
@@ -2666,7 +2666,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO12" t="n">
         <v>19.5</v>
@@ -2687,13 +2687,13 @@
         <v>2.92</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV12" t="n">
         <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AX12" t="n">
         <v>9.5</v>
@@ -2749,145 +2749,145 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L13" t="n">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
         <v>9.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R13" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="S13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE13" t="n">
         <v>11.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH13" t="n">
         <v>12.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS13" t="n">
         <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AU13" t="n">
         <v>6.4</v>
       </c>
       <c r="AV13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA13" t="n">
         <v>40</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>45</v>
       </c>
       <c r="BB13" t="n">
         <v>120</v>
@@ -2934,7 +2934,7 @@
         <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
         <v>6.6</v>
@@ -2943,10 +2943,10 @@
         <v>1.93</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2955,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
         <v>4.35</v>
@@ -2964,13 +2964,13 @@
         <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U14" t="n">
         <v>1.7</v>
@@ -2979,7 +2979,7 @@
         <v>2.02</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X14" t="n">
         <v>7.7</v>
@@ -3036,25 +3036,25 @@
         <v>6.7</v>
       </c>
       <c r="AP14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS14" t="n">
         <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU14" t="n">
         <v>7.4</v>
       </c>
       <c r="AV14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW14" t="n">
         <v>8</v>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K15" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="L15" t="n">
         <v>4.55</v>
@@ -3140,13 +3140,13 @@
         <v>1.1</v>
       </c>
       <c r="P15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="S15" t="n">
         <v>1.21</v>
@@ -3155,10 +3155,10 @@
         <v>3.95</v>
       </c>
       <c r="U15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V15" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W15" t="n">
         <v>14</v>
@@ -3170,37 +3170,37 @@
         <v>8.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK15" t="n">
         <v>90</v>
@@ -3212,31 +3212,31 @@
         <v>28</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AP15" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AR15" t="n">
         <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AT15" t="n">
         <v>3.95</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AW15" t="n">
         <v>7.4</v>
@@ -3257,7 +3257,7 @@
         <v>150</v>
       </c>
       <c r="BC15" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3295,40 +3295,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3382,7 +3382,7 @@
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
         <v>23</v>
@@ -3394,7 +3394,7 @@
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
         <v>17</v>
@@ -3424,13 +3424,13 @@
         <v>4.33</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
         <v>67</v>
@@ -3442,7 +3442,7 @@
         <v>501</v>
       </c>
       <c r="BD16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -3624,7 +3624,7 @@
         <v>201</v>
       </c>
       <c r="BD17" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
         <v>2.6</v>
@@ -3707,7 +3707,7 @@
         <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>10</v>
@@ -3841,118 +3841,118 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K19" t="n">
         <v>2.15</v>
       </c>
       <c r="L19" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.7</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
         <v>2.55</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="W19" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="X19" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AG19" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AH19" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>37</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>150</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS19" t="n">
         <v>250</v>
@@ -3961,22 +3961,22 @@
         <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>80</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AX19" t="n">
         <v>37</v>
       </c>
       <c r="AY19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ19" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA19" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -789,37 +789,37 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,19 +828,19 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>23</v>
@@ -849,7 +849,7 @@
         <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -861,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
@@ -870,19 +870,19 @@
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -891,7 +891,7 @@
         <v>126</v>
       </c>
       <c r="BC2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -977,19 +977,19 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1010,34 +1010,34 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1055,10 +1055,10 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1126,13 +1126,13 @@
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1171,10 +1171,10 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1296,82 +1296,82 @@
         <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
         <v>10</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
         <v>13</v>
@@ -1380,7 +1380,7 @@
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1392,31 +1392,31 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
         <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>5.5</v>
@@ -1434,13 +1434,13 @@
         <v>67</v>
       </c>
       <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
         <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1675,10 +1675,10 @@
         <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1875,10 +1875,10 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1902,13 +1902,13 @@
         <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
         <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -1956,7 +1956,7 @@
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -2039,10 +2039,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
         <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
@@ -2221,10 +2221,10 @@
         <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2251,7 +2251,7 @@
         <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
@@ -2305,7 +2305,7 @@
         <v>3.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2388,13 +2388,13 @@
         <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
@@ -2403,10 +2403,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2469,7 +2469,7 @@
         <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
@@ -2487,7 +2487,7 @@
         <v>3.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2523,7 +2523,7 @@
         <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
         <v>301</v>
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
         <v>1.88</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L12" t="n">
         <v>2.45</v>
@@ -2609,10 +2609,10 @@
         <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
         <v>13</v>
@@ -2627,16 +2627,16 @@
         <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
         <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE12" t="n">
         <v>12.5</v>
@@ -2648,16 +2648,16 @@
         <v>300</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>14</v>
@@ -2666,46 +2666,46 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
         <v>100</v>
       </c>
       <c r="AR12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS12" t="n">
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV12" t="n">
         <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ12" t="n">
         <v>32</v>
       </c>
       <c r="BA12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB12" t="n">
         <v>175</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="J14" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="K14" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="L14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2964,109 +2964,109 @@
         <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W14" t="n">
         <v>8.25</v>
       </c>
       <c r="X14" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA14" t="n">
         <v>10.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE14" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG14" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>150</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
         <v>3.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS14" t="n">
         <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV14" t="n">
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AX14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY14" t="n">
         <v>35</v>
       </c>
-      <c r="AY14" t="n">
-        <v>32</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA14" t="n">
         <v>200</v>
@@ -3113,91 +3113,91 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
         <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.85</v>
+        <v>4.55</v>
       </c>
       <c r="J15" t="n">
         <v>1.98</v>
       </c>
       <c r="K15" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L15" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="O15" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P15" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.32</v>
       </c>
-      <c r="R15" t="n">
+      <c r="V15" t="n">
         <v>3.1</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="n">
         <v>14</v>
       </c>
-      <c r="X15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>15</v>
-      </c>
       <c r="AC15" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AE15" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF15" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ15" t="n">
         <v>16.5</v>
@@ -3206,58 +3206,58 @@
         <v>90</v>
       </c>
       <c r="AL15" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AP15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>18.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>90</v>
       </c>
-      <c r="AT15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>35</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>110</v>
-      </c>
       <c r="BA15" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BB15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC15" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3295,40 +3295,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3358,7 +3358,7 @@
         <v>26</v>
       </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
@@ -3382,7 +3382,7 @@
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
         <v>23</v>
@@ -3394,7 +3394,7 @@
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
         <v>17</v>
@@ -3424,13 +3424,13 @@
         <v>4.33</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
         <v>67</v>
@@ -3442,7 +3442,7 @@
         <v>501</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -3477,52 +3477,52 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K17" t="n">
         <v>2.6</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R17" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -3531,7 +3531,7 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
         <v>23</v>
@@ -3546,22 +3546,22 @@
         <v>23</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE17" t="n">
         <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>67</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3585,7 +3585,7 @@
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
@@ -3594,7 +3594,7 @@
         <v>67</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU17" t="n">
         <v>6.5</v>
@@ -3603,7 +3603,7 @@
         <v>34</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>15</v>
@@ -3615,7 +3615,7 @@
         <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB17" t="n">
         <v>81</v>
@@ -3677,22 +3677,22 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3701,13 +3701,13 @@
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
         <v>10</v>
@@ -3722,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
@@ -3740,7 +3740,7 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
@@ -3773,7 +3773,7 @@
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="n">
         <v>3.25</v>
@@ -3782,7 +3782,7 @@
         <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
         <v>5.5</v>
@@ -3803,7 +3803,7 @@
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD18" t="n">
         <v>151</v>
@@ -3856,10 +3856,10 @@
         <v>2.15</v>
       </c>
       <c r="L19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
         <v>8.949999999999999</v>
@@ -3874,13 +3874,13 @@
         <v>1.87</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T19" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U19" t="n">
         <v>1.9</v>
@@ -3889,13 +3889,13 @@
         <v>1.72</v>
       </c>
       <c r="W19" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X19" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z19" t="n">
         <v>10.5</v>
@@ -3904,7 +3904,7 @@
         <v>12.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
         <v>10</v>
@@ -3922,7 +3922,7 @@
         <v>800</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
         <v>37</v>
@@ -3931,10 +3931,10 @@
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
         <v>65</v>
@@ -3943,7 +3943,7 @@
         <v>3.25</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
@@ -3958,28 +3958,28 @@
         <v>250</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV19" t="n">
         <v>80</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AX19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY19" t="n">
         <v>37</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>40</v>
       </c>
       <c r="AZ19" t="n">
         <v>250</v>
       </c>
       <c r="BA19" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB19" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1126,7 +1126,7 @@
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1171,10 +1171,10 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="n">
         <v>34</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1475,52 +1475,52 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
         <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
         <v>2.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.25</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.38</v>
       </c>
       <c r="W6" t="n">
         <v>13</v>
@@ -1538,25 +1538,25 @@
         <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
         <v>126</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -1580,37 +1580,37 @@
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
         <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1619,7 +1619,7 @@
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
         <v>176</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1705,13 +1705,13 @@
         <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>7</v>
@@ -1738,16 +1738,16 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="n">
         <v>81</v>
@@ -1768,7 +1768,7 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1792,7 +1792,7 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA7" t="n">
         <v>351</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
         <v>3.75</v>
@@ -1869,16 +1869,16 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1887,7 +1887,7 @@
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1902,16 +1902,16 @@
         <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1926,13 +1926,13 @@
         <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1956,10 +1956,10 @@
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
@@ -1968,7 +1968,7 @@
         <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -1977,7 +1977,7 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
         <v>251</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2251,7 +2251,7 @@
         <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
@@ -2260,7 +2260,7 @@
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2275,7 +2275,7 @@
         <v>8.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>101</v>
@@ -2290,7 +2290,7 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
         <v>101</v>
@@ -2299,10 +2299,10 @@
         <v>67</v>
       </c>
       <c r="AM10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO10" t="n">
         <v>7</v>
@@ -2311,13 +2311,13 @@
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
@@ -2329,7 +2329,7 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
         <v>41</v>
@@ -2338,10 +2338,10 @@
         <v>51</v>
       </c>
       <c r="AZ10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB10" t="n">
         <v>501</v>
@@ -2403,10 +2403,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
         <v>3.45</v>
@@ -2576,13 +2576,13 @@
         <v>1.88</v>
       </c>
       <c r="J12" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
         <v>2.15</v>
       </c>
       <c r="L12" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2609,34 +2609,34 @@
         <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE12" t="n">
         <v>12.5</v>
@@ -2648,10 +2648,10 @@
         <v>300</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.25</v>
@@ -2669,22 +2669,22 @@
         <v>5.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS12" t="n">
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU12" t="n">
         <v>6.6</v>
@@ -2696,16 +2696,16 @@
         <v>3.9</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB12" t="n">
         <v>175</v>
@@ -3850,16 +3850,16 @@
         <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L19" t="n">
         <v>5.8</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
         <v>8.949999999999999</v>
@@ -3877,10 +3877,10 @@
         <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U19" t="n">
         <v>1.9</v>
@@ -3895,7 +3895,7 @@
         <v>6.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>10.5</v>
@@ -3904,7 +3904,7 @@
         <v>12.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC19" t="n">
         <v>10</v>
@@ -3943,25 +3943,25 @@
         <v>3.25</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>60</v>
       </c>
       <c r="AS19" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>80</v>
@@ -3973,7 +3973,7 @@
         <v>35</v>
       </c>
       <c r="AY19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ19" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -1657,46 +1657,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
         <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
         <v>2.63</v>
@@ -1705,16 +1705,16 @@
         <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
@@ -1744,7 +1744,7 @@
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
         <v>126</v>
@@ -1768,13 +1768,13 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1783,7 +1783,7 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1881,25 +1881,25 @@
         <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1908,7 +1908,7 @@
         <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1923,13 +1923,13 @@
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>29</v>
@@ -1965,22 +1965,22 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
         <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
@@ -2045,16 +2045,16 @@
         <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2063,10 +2063,10 @@
         <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2081,16 +2081,16 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2117,13 +2117,13 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2135,16 +2135,16 @@
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
         <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
         <v>5</v>
@@ -2156,10 +2156,10 @@
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>351</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2251,7 +2251,7 @@
         <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
@@ -2275,7 +2275,7 @@
         <v>8.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
         <v>101</v>
@@ -2284,13 +2284,13 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
         <v>101</v>
@@ -2299,7 +2299,7 @@
         <v>67</v>
       </c>
       <c r="AM10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN10" t="n">
         <v>3.1</v>
@@ -2311,13 +2311,13 @@
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
@@ -2338,10 +2338,10 @@
         <v>51</v>
       </c>
       <c r="AZ10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA10" t="n">
         <v>251</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>301</v>
       </c>
       <c r="BB10" t="n">
         <v>501</v>
@@ -2493,7 +2493,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2526,7 +2526,7 @@
         <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2576,7 +2576,7 @@
         <v>1.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>2.15</v>
@@ -2591,16 +2591,16 @@
         <v>11.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2612,10 +2612,10 @@
         <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -2630,43 +2630,43 @@
         <v>30</v>
       </c>
       <c r="AB12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO12" t="n">
         <v>19.5</v>
@@ -2675,31 +2675,31 @@
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS12" t="n">
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AX12" t="n">
         <v>9.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
         <v>35</v>
@@ -2708,7 +2708,7 @@
         <v>60</v>
       </c>
       <c r="BB12" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -3841,148 +3841,148 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K19" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L19" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>8.949999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T19" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W19" t="n">
         <v>6.2</v>
       </c>
       <c r="X19" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA19" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB19" t="n">
         <v>28</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU19" t="n">
         <v>7.4</v>
       </c>
-      <c r="AP19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
       <c r="AV19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AX19" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AZ19" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BA19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB19" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -1675,22 +1675,22 @@
         <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1744,7 +1744,7 @@
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>126</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1881,37 +1881,37 @@
         <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1923,13 +1923,13 @@
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>29</v>
@@ -1959,28 +1959,28 @@
         <v>2.38</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
         <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
@@ -2039,46 +2039,46 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.57</v>
       </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>9.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>23</v>
@@ -2087,7 +2087,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD9" t="n">
         <v>5.5</v>
@@ -2096,13 +2096,13 @@
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2138,7 +2138,7 @@
         <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2245,22 +2245,22 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2272,10 +2272,10 @@
         <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>101</v>
@@ -2284,7 +2284,7 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
@@ -2302,10 +2302,10 @@
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2323,13 +2323,13 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX10" t="n">
         <v>41</v>
@@ -2573,16 +2573,16 @@
         <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K12" t="n">
         <v>2.15</v>
       </c>
       <c r="L12" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2603,31 +2603,31 @@
         <v>1.93</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T12" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="U12" t="n">
         <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
         <v>32</v>
@@ -2648,31 +2648,31 @@
         <v>350</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN12" t="n">
         <v>5.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
         <v>100</v>
@@ -2684,7 +2684,7 @@
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU12" t="n">
         <v>6.7</v>
@@ -2699,16 +2699,16 @@
         <v>9.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB12" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L19" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>9.15</v>
+        <v>12.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -3871,10 +3871,10 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S19" t="n">
         <v>1.38</v>
@@ -3889,19 +3889,19 @@
         <v>1.75</v>
       </c>
       <c r="W19" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X19" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
         <v>28</v>
@@ -3910,10 +3910,10 @@
         <v>9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>80</v>
@@ -3922,43 +3922,43 @@
         <v>700</v>
       </c>
       <c r="AH19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK19" t="n">
         <v>110</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
         <v>3.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>55</v>
       </c>
       <c r="AS19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU19" t="n">
         <v>7.4</v>
@@ -3967,22 +3967,22 @@
         <v>70</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ19" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA19" t="n">
         <v>200</v>
       </c>
       <c r="BB19" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-26.xlsx
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
@@ -2427,22 +2427,22 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2454,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -2472,7 +2472,7 @@
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>51</v>
@@ -2484,7 +2484,7 @@
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
         <v>9</v>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.7</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.45</v>
-      </c>
       <c r="I12" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="J12" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="L12" t="n">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
         <v>3.4</v>
@@ -2603,109 +2603,109 @@
         <v>1.93</v>
       </c>
       <c r="S12" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V12" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="W12" t="n">
+        <v>14</v>
+      </c>
+      <c r="X12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL12" t="n">
         <v>12.5</v>
       </c>
-      <c r="X12" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AM12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA12" t="n">
         <v>50</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>55</v>
       </c>
       <c r="BB12" t="n">
         <v>175</v>
